--- a/PersonalInfo_Data.xlsx
+++ b/PersonalInfo_Data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
   <si>
     <t>FirstName</t>
   </si>

--- a/PersonalInfo_Data.xlsx
+++ b/PersonalInfo_Data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="39">
   <si>
     <t>FirstName</t>
   </si>

--- a/PersonalInfo_Data.xlsx
+++ b/PersonalInfo_Data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
   <si>
     <t>FirstName</t>
   </si>

--- a/PersonalInfo_Data.xlsx
+++ b/PersonalInfo_Data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="39">
   <si>
     <t>FirstName</t>
   </si>
